--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-experiment-type-internal.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-experiment-type-internal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t xml:space="preserve">EXPERIMENT_TYPE</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -145,7 +148,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -184,6 +187,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -232,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,6 +265,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,13 +293,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -362,131 +377,146 @@
       <c r="N4" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="O4" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>22</v>
+      <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>22</v>
+      <c r="K6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>22</v>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>22</v>
+      <c r="K8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-experiment-type-internal.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-experiment-type-internal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t xml:space="preserve">EXPERIMENT_TYPE</t>
   </si>
@@ -85,10 +85,7 @@
     <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal Assignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$NAME</t>
+    <t xml:space="preserve">$$NAME</t>
   </si>
   <si>
     <t xml:space="preserve">FALSE</t>
@@ -296,10 +293,10 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -377,147 +374,137 @@
       <c r="N4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-experiment-type-internal.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-experiment-type-internal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t xml:space="preserve">EXPERIMENT_TYPE</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -37,7 +40,10 @@
     <t xml:space="preserve">Modification Date</t>
   </si>
   <si>
-    <t xml:space="preserve">$INTERNAL_DEFAULT_EXPERIMENT</t>
+    <t xml:space="preserve">INTERNAL_DEFAULT_EXPERIMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Default experiment</t>
@@ -85,15 +91,15 @@
     <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
-    <t xml:space="preserve">$$NAME</t>
+    <t xml:space="preserve">Internal Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
   </si>
   <si>
     <t xml:space="preserve">FALSE</t>
   </si>
   <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
     <t xml:space="preserve">General info</t>
   </si>
   <si>
@@ -103,7 +109,7 @@
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">$DEFAULT_OBJECT_TYPE</t>
+    <t xml:space="preserve">DEFAULT_OBJECT_TYPE</t>
   </si>
   <si>
     <t xml:space="preserve">Default object type</t>
@@ -124,7 +130,7 @@
     <t xml:space="preserve">{"custom_widget":"Word Processor"}</t>
   </si>
   <si>
-    <t xml:space="preserve">$XMLCOMMENTS</t>
+    <t xml:space="preserve">XMLCOMMENTS</t>
   </si>
   <si>
     <t xml:space="preserve">Comments List</t>
@@ -142,10 +148,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -176,9 +182,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -240,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,23 +272,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,24 +317,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -316,195 +343,226 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="N4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
